--- a/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="22980" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Layup3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>m/A</t>
   </si>
@@ -37,6 +34,30 @@
   </si>
   <si>
     <t>0.2540    0.2540    2.2352    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>Layup 2</t>
+  </si>
+  <si>
+    <t>Layup 1</t>
+  </si>
+  <si>
+    <t>Layup 3</t>
+  </si>
+  <si>
+    <t>0.4064    0.4064   17.5768    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.4318    0.4318   17.0688    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4572    0.4572   16.6116    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>No Go</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   14.3256    0.0254    0.0254</t>
   </si>
 </sst>
 </file>
@@ -375,26 +396,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -408,7 +429,7 @@
         <v>219.61410000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -422,7 +443,7 @@
         <v>218.26259999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -436,7 +457,107 @@
         <v>216.911</v>
       </c>
       <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.9</v>
+      </c>
+      <c r="B7">
+        <v>2.0863</v>
+      </c>
+      <c r="C7">
+        <v>252.297</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
+        <v>3.76</v>
+      </c>
+      <c r="C12">
+        <v>454.70960000000002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3.7172000000000001</v>
+      </c>
+      <c r="C13">
+        <v>449.5369</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14">
+        <v>3.6831</v>
+      </c>
+      <c r="C14">
+        <v>445.4085</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
@@ -42,9 +42,6 @@
     <t>Layup 1</t>
   </si>
   <si>
-    <t>Layup 3</t>
-  </si>
-  <si>
     <t>0.4064    0.4064   17.5768    0.0254    0.0254</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>0.2540    0.2540   14.3256    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>Layup 4</t>
   </si>
 </sst>
 </file>
@@ -398,15 +398,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -485,7 +483,7 @@
         <v>252.297</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -493,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,7 +499,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,7 +527,7 @@
         <v>454.70960000000002</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,7 +541,7 @@
         <v>449.5369</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -557,7 +555,7 @@
         <v>445.4085</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
@@ -76,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -89,9 +89,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -129,7 +129,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -201,7 +201,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -375,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.9</v>
       </c>
@@ -407,11 +407,15 @@
       <c r="C2">
         <v>219.61410000000001</v>
       </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>120.93287444933921</v>
+      </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -421,11 +425,15 @@
       <c r="C3">
         <v>218.26259999999999</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">C3/B3</f>
+        <v>120.9345079787234</v>
+      </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -435,8 +443,105 @@
       <c r="C4">
         <v>216.911</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>120.93610615521855</v>
+      </c>
       <c r="E4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="F7">
+        <v>2900</v>
+      </c>
+      <c r="G7">
+        <f>F7*E7</f>
+        <v>1473.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G9" si="1">F8*E8</f>
+        <v>268.22399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>1468</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>74.574399999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>SUM(G7:G9)</f>
+        <v>1815.9983999999999</v>
+      </c>
+      <c r="H10">
+        <v>120.93</v>
+      </c>
+      <c r="I10">
+        <f>H10*G10/1000</f>
+        <v>219.60868651200002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="F13">
+        <v>858</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="2">F13*E13</f>
+        <v>435.86400000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>1468</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>37.287199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f>SUM(G13:G14)</f>
+        <v>473.15120000000002</v>
+      </c>
+      <c r="H15">
+        <f>H10-2.25^2*PI()</f>
+        <v>105.02568719120168</v>
+      </c>
+      <c r="I15">
+        <f>G15*H15/1000</f>
+        <v>49.693029925341712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f>I15+I10</f>
+        <v>269.30171643734172</v>
       </c>
     </row>
   </sheetData>

--- a/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
@@ -73,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -396,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -418,21 +425,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0.9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.8160000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>219.61410000000001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -446,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -460,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -474,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -488,7 +499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -496,7 +507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
@@ -504,7 +515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -518,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -532,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -546,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.1000000000000001</v>
       </c>

--- a/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Design/density.xlsx
@@ -104,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +435,10 @@
       <c r="C2" s="1">
         <v>219.61410000000001</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <f>C2/B2</f>
+        <v>120.93287444933921</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -453,6 +456,10 @@
       <c r="C3">
         <v>218.26259999999999</v>
       </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D4" si="0">C3/B3</f>
+        <v>120.9345079787234</v>
+      </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
@@ -467,6 +474,10 @@
       <c r="C4">
         <v>216.911</v>
       </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>120.93610615521855</v>
+      </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -569,6 +580,62 @@
       </c>
       <c r="E14" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f>0.014*25.4</f>
+        <v>0.35559999999999997</v>
+      </c>
+      <c r="L17">
+        <f>858</f>
+        <v>858</v>
+      </c>
+      <c r="M17">
+        <f>L17*K17</f>
+        <v>305.10479999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f>0.0254</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="L18">
+        <v>1468</v>
+      </c>
+      <c r="M18">
+        <f>L18*K18</f>
+        <v>37.287199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <f>M18+M17</f>
+        <v>342.39199999999994</v>
+      </c>
+      <c r="N19">
+        <f>M19/1000</f>
+        <v>0.34239199999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>120.93</v>
+      </c>
+      <c r="L20">
+        <f>K20-2.25*2.25*PI()</f>
+        <v>105.02568719120168</v>
+      </c>
+      <c r="N20">
+        <f>N19*L20</f>
+        <v>35.959955088769917</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <f>N20+C2</f>
+        <v>255.57405508876991</v>
       </c>
     </row>
   </sheetData>
